--- a/content_based/df_exploded_encoded.xlsx
+++ b/content_based/df_exploded_encoded.xlsx
@@ -1775,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -1930,7 +1930,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -2085,7 +2085,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -2243,13 +2243,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -2398,13 +2398,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -2553,13 +2553,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -2860,7 +2860,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -3015,7 +3015,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -3170,7 +3170,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -3325,7 +3325,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -3486,13 +3486,13 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -3641,13 +3641,13 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -4261,13 +4261,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -4416,13 +4416,13 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -4571,13 +4571,13 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -4723,13 +4723,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -4878,13 +4878,13 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -5033,13 +5033,13 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -5188,13 +5188,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -5343,13 +5343,13 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -6124,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -6279,7 +6279,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -6434,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -6589,7 +6589,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
@@ -6735,16 +6735,16 @@
         <v>11</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -6890,16 +6890,16 @@
         <v>11</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -7045,16 +7045,16 @@
         <v>11</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -7200,16 +7200,16 @@
         <v>11</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
@@ -7355,16 +7355,16 @@
         <v>11</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
@@ -7513,16 +7513,16 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -7668,16 +7668,16 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -7823,16 +7823,16 @@
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -7978,16 +7978,16 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -8133,16 +8133,16 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -8288,16 +8288,16 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>13</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -8595,7 +8595,7 @@
         <v>13</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>13</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -8905,16 +8905,16 @@
         <v>14</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
@@ -9060,16 +9060,16 @@
         <v>14</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
@@ -9215,7 +9215,7 @@
         <v>15</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -9370,7 +9370,7 @@
         <v>15</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -9534,7 +9534,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
@@ -9689,7 +9689,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
@@ -9835,7 +9835,7 @@
         <v>17</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -10774,7 +10774,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
@@ -10929,7 +10929,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>1</v>
@@ -11084,7 +11084,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
@@ -11239,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
@@ -12470,7 +12470,7 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -12625,7 +12625,7 @@
         <v>22</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -13561,13 +13561,13 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -13716,13 +13716,13 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -15105,7 +15105,7 @@
         <v>28</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
@@ -15260,7 +15260,7 @@
         <v>28</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -15415,7 +15415,7 @@
         <v>28</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -15570,7 +15570,7 @@
         <v>28</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
@@ -17430,19 +17430,19 @@
         <v>32</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -17585,19 +17585,19 @@
         <v>32</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -17740,19 +17740,19 @@
         <v>32</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -17904,7 +17904,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -18059,7 +18059,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -18214,7 +18214,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -18369,7 +18369,7 @@
         <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -18524,7 +18524,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -18676,13 +18676,13 @@
         <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -18831,13 +18831,13 @@
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -18986,13 +18986,13 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -19141,13 +19141,13 @@
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -19299,10 +19299,10 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -19454,10 +19454,10 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -19609,10 +19609,10 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -19764,10 +19764,10 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -20223,16 +20223,16 @@
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -20378,16 +20378,16 @@
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -20533,16 +20533,16 @@
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -20688,16 +20688,16 @@
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -20843,16 +20843,16 @@
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -21004,7 +21004,7 @@
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -21159,7 +21159,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -21314,7 +21314,7 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -22235,10 +22235,10 @@
         <v>42</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -22247,7 +22247,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -22390,10 +22390,10 @@
         <v>42</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
@@ -22402,7 +22402,7 @@
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -22545,10 +22545,10 @@
         <v>42</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -22557,7 +22557,7 @@
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
         <v>1</v>
@@ -24569,7 +24569,7 @@
         <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
         <v>1</v>
@@ -24724,7 +24724,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
         <v>1</v>
@@ -24879,7 +24879,7 @@
         <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158" t="n">
         <v>1</v>
@@ -25341,7 +25341,7 @@
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
@@ -25496,7 +25496,7 @@
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
@@ -25651,7 +25651,7 @@
         <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>49</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -25955,7 +25955,7 @@
         <v>49</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
@@ -26110,7 +26110,7 @@
         <v>49</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
@@ -26265,7 +26265,7 @@
         <v>49</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
@@ -26420,7 +26420,7 @@
         <v>49</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
         <v>1</v>
@@ -26575,7 +26575,7 @@
         <v>49</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -26739,7 +26739,7 @@
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
@@ -26894,7 +26894,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171" t="n">
         <v>1</v>
@@ -27049,7 +27049,7 @@
         <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
@@ -27204,7 +27204,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
         <v>1</v>
@@ -27350,7 +27350,7 @@
         <v>51</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -27359,7 +27359,7 @@
         <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -27982,7 +27982,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
@@ -28137,7 +28137,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -28292,7 +28292,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -28447,7 +28447,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -28903,10 +28903,10 @@
         <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" t="n">
         <v>1</v>
@@ -29058,10 +29058,10 @@
         <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185" t="n">
         <v>1</v>
@@ -29210,7 +29210,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -29365,7 +29365,7 @@
         <v>56</v>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
         <v>1</v>
@@ -29520,7 +29520,7 @@
         <v>56</v>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -29675,7 +29675,7 @@
         <v>57</v>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -29684,7 +29684,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -29830,7 +29830,7 @@
         <v>57</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -29839,7 +29839,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -29991,10 +29991,10 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -30146,10 +30146,10 @@
         <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -30459,7 +30459,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194" t="n">
         <v>1</v>
@@ -30614,7 +30614,7 @@
         <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" t="n">
         <v>1</v>
@@ -30769,7 +30769,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
@@ -30924,7 +30924,7 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
@@ -32006,10 +32006,10 @@
         <v>1</v>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" t="n">
         <v>1</v>
@@ -32161,10 +32161,10 @@
         <v>1</v>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205" t="n">
         <v>1</v>
@@ -32316,10 +32316,10 @@
         <v>1</v>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
         <v>1</v>
@@ -32465,7 +32465,7 @@
         <v>64</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
@@ -32620,7 +32620,7 @@
         <v>64</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
@@ -32775,7 +32775,7 @@
         <v>64</v>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -32930,7 +32930,7 @@
         <v>64</v>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -34170,16 +34170,16 @@
         <v>67</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218" t="n">
         <v>1</v>
@@ -34325,16 +34325,16 @@
         <v>67</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219" t="n">
         <v>1</v>
@@ -34480,16 +34480,16 @@
         <v>67</v>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220" t="n">
         <v>1</v>
@@ -34635,16 +34635,16 @@
         <v>67</v>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221" t="n">
         <v>1</v>
@@ -34790,16 +34790,16 @@
         <v>67</v>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222" t="n">
         <v>1</v>
@@ -34954,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223" t="n">
         <v>1</v>
@@ -35109,7 +35109,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230" t="n">
         <v>1</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231" t="n">
         <v>1</v>
@@ -36349,7 +36349,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232" t="n">
         <v>1</v>
@@ -36504,7 +36504,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233" t="n">
         <v>1</v>
@@ -37124,7 +37124,7 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -37270,7 +37270,7 @@
         <v>74</v>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -37279,10 +37279,10 @@
         <v>1</v>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -37425,7 +37425,7 @@
         <v>74</v>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -37434,10 +37434,10 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -37580,7 +37580,7 @@
         <v>74</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -37589,10 +37589,10 @@
         <v>1</v>
       </c>
       <c r="E240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -37735,7 +37735,7 @@
         <v>74</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -37744,10 +37744,10 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
@@ -37902,7 +37902,7 @@
         <v>1</v>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -38057,7 +38057,7 @@
         <v>1</v>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -38212,7 +38212,7 @@
         <v>1</v>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -38367,7 +38367,7 @@
         <v>1</v>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -38513,13 +38513,13 @@
         <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D246" t="n">
         <v>1</v>
       </c>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246" t="n">
         <v>1</v>
@@ -38668,13 +38668,13 @@
         <v>1</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D247" t="n">
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247" t="n">
         <v>1</v>
@@ -38823,13 +38823,13 @@
         <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D248" t="n">
         <v>1</v>
       </c>
       <c r="E248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248" t="n">
         <v>1</v>
@@ -40060,7 +40060,7 @@
         <v>79</v>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
@@ -40215,7 +40215,7 @@
         <v>79</v>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
         <v>1</v>
@@ -40370,7 +40370,7 @@
         <v>79</v>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -40525,7 +40525,7 @@
         <v>80</v>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="n">
         <v>1</v>
@@ -40680,7 +40680,7 @@
         <v>80</v>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C260" t="n">
         <v>1</v>
@@ -40835,7 +40835,7 @@
         <v>80</v>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
         <v>1</v>
@@ -40990,7 +40990,7 @@
         <v>80</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
         <v>1</v>
@@ -41145,7 +41145,7 @@
         <v>80</v>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
@@ -41300,7 +41300,7 @@
         <v>80</v>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
         <v>1</v>
@@ -42075,7 +42075,7 @@
         <v>82</v>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -42230,7 +42230,7 @@
         <v>82</v>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -42385,7 +42385,7 @@
         <v>82</v>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -42540,7 +42540,7 @@
         <v>82</v>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -42695,7 +42695,7 @@
         <v>82</v>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -42850,7 +42850,7 @@
         <v>82</v>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -44555,7 +44555,7 @@
         <v>86</v>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C285" t="n">
         <v>1</v>
@@ -44564,7 +44564,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F285" t="n">
         <v>1</v>
@@ -44710,7 +44710,7 @@
         <v>86</v>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -44719,7 +44719,7 @@
         <v>1</v>
       </c>
       <c r="E286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F286" t="n">
         <v>1</v>
@@ -44865,7 +44865,7 @@
         <v>86</v>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="n">
         <v>1</v>
@@ -44874,7 +44874,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F287" t="n">
         <v>1</v>
@@ -45029,7 +45029,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288" t="n">
         <v>1</v>
@@ -45184,7 +45184,7 @@
         <v>0</v>
       </c>
       <c r="E289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F289" t="n">
         <v>1</v>
@@ -45339,7 +45339,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F290" t="n">
         <v>1</v>
@@ -45494,7 +45494,7 @@
         <v>0</v>
       </c>
       <c r="E291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F291" t="n">
         <v>1</v>
@@ -45643,7 +45643,7 @@
         <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D292" t="n">
         <v>1</v>
@@ -45652,7 +45652,7 @@
         <v>0</v>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -45798,7 +45798,7 @@
         <v>1</v>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D293" t="n">
         <v>1</v>
@@ -45807,7 +45807,7 @@
         <v>0</v>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G293" t="n">
         <v>0</v>
@@ -45953,7 +45953,7 @@
         <v>1</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D294" t="n">
         <v>1</v>
@@ -45962,7 +45962,7 @@
         <v>0</v>
       </c>
       <c r="F294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G294" t="n">
         <v>0</v>
@@ -46108,7 +46108,7 @@
         <v>1</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D295" t="n">
         <v>1</v>
@@ -46117,7 +46117,7 @@
         <v>0</v>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G295" t="n">
         <v>0</v>
@@ -46263,7 +46263,7 @@
         <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D296" t="n">
         <v>1</v>
@@ -46272,7 +46272,7 @@
         <v>0</v>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G296" t="n">
         <v>0</v>
@@ -46418,7 +46418,7 @@
         <v>1</v>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D297" t="n">
         <v>1</v>
@@ -46427,7 +46427,7 @@
         <v>0</v>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G297" t="n">
         <v>0</v>
@@ -46576,10 +46576,10 @@
         <v>1</v>
       </c>
       <c r="D298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F298" t="n">
         <v>1</v>
@@ -46731,10 +46731,10 @@
         <v>1</v>
       </c>
       <c r="D299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F299" t="n">
         <v>1</v>
@@ -46886,10 +46886,10 @@
         <v>1</v>
       </c>
       <c r="D300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F300" t="n">
         <v>1</v>
@@ -47974,7 +47974,7 @@
         <v>0</v>
       </c>
       <c r="E307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F307" t="n">
         <v>1</v>
@@ -48129,7 +48129,7 @@
         <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F308" t="n">
         <v>1</v>
@@ -48284,7 +48284,7 @@
         <v>0</v>
       </c>
       <c r="E309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F309" t="n">
         <v>1</v>
@@ -48430,16 +48430,16 @@
         <v>92</v>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
@@ -48585,16 +48585,16 @@
         <v>92</v>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
@@ -48740,16 +48740,16 @@
         <v>92</v>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
@@ -48895,16 +48895,16 @@
         <v>92</v>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
@@ -49050,13 +49050,13 @@
         <v>93</v>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314" t="n">
         <v>1</v>
       </c>
       <c r="D314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E314" t="n">
         <v>1</v>
@@ -49205,13 +49205,13 @@
         <v>93</v>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
       </c>
       <c r="D315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E315" t="n">
         <v>1</v>
@@ -49360,13 +49360,13 @@
         <v>93</v>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C316" t="n">
         <v>1</v>
       </c>
       <c r="D316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E316" t="n">
         <v>1</v>
@@ -49515,13 +49515,13 @@
         <v>93</v>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317" t="n">
         <v>1</v>
       </c>
       <c r="D317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E317" t="n">
         <v>1</v>
@@ -51065,7 +51065,7 @@
         <v>96</v>
       </c>
       <c r="B327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C327" t="n">
         <v>1</v>
@@ -51074,7 +51074,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F327" t="n">
         <v>1</v>
@@ -51220,7 +51220,7 @@
         <v>96</v>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
         <v>1</v>
@@ -51229,7 +51229,7 @@
         <v>1</v>
       </c>
       <c r="E328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F328" t="n">
         <v>1</v>
@@ -51375,7 +51375,7 @@
         <v>96</v>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C329" t="n">
         <v>1</v>
@@ -51384,7 +51384,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F329" t="n">
         <v>1</v>
@@ -51530,7 +51530,7 @@
         <v>96</v>
       </c>
       <c r="B330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C330" t="n">
         <v>1</v>
@@ -51539,7 +51539,7 @@
         <v>1</v>
       </c>
       <c r="E330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F330" t="n">
         <v>1</v>
@@ -52460,7 +52460,7 @@
         <v>99</v>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C336" t="n">
         <v>1</v>
@@ -52615,7 +52615,7 @@
         <v>99</v>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
         <v>1</v>
@@ -52770,7 +52770,7 @@
         <v>99</v>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C338" t="n">
         <v>1</v>
@@ -52925,7 +52925,7 @@
         <v>99</v>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C339" t="n">
         <v>1</v>
@@ -53080,7 +53080,7 @@
         <v>99</v>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C340" t="n">
         <v>1</v>
@@ -53554,7 +53554,7 @@
         <v>0</v>
       </c>
       <c r="E343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F343" t="n">
         <v>1</v>
@@ -53709,7 +53709,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F344" t="n">
         <v>1</v>
@@ -53864,7 +53864,7 @@
         <v>0</v>
       </c>
       <c r="E345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F345" t="n">
         <v>1</v>
@@ -54019,7 +54019,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F346" t="n">
         <v>1</v>
@@ -54174,7 +54174,7 @@
         <v>0</v>
       </c>
       <c r="E347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F347" t="n">
         <v>1</v>
@@ -54326,13 +54326,13 @@
         <v>1</v>
       </c>
       <c r="D348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E348" t="n">
         <v>0</v>
       </c>
       <c r="F348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -54481,13 +54481,13 @@
         <v>1</v>
       </c>
       <c r="D349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E349" t="n">
         <v>0</v>
       </c>
       <c r="F349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G349" t="n">
         <v>0</v>
@@ -54636,13 +54636,13 @@
         <v>1</v>
       </c>
       <c r="D350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E350" t="n">
         <v>0</v>
       </c>
       <c r="F350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G350" t="n">
         <v>0</v>
@@ -54791,13 +54791,13 @@
         <v>1</v>
       </c>
       <c r="D351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E351" t="n">
         <v>0</v>
       </c>
       <c r="F351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G351" t="n">
         <v>0</v>
@@ -54940,7 +54940,7 @@
         <v>103</v>
       </c>
       <c r="B352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C352" t="n">
         <v>1</v>
@@ -54949,10 +54949,10 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -55095,7 +55095,7 @@
         <v>103</v>
       </c>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C353" t="n">
         <v>1</v>
@@ -55104,10 +55104,10 @@
         <v>0</v>
       </c>
       <c r="E353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G353" t="n">
         <v>0</v>
@@ -55250,7 +55250,7 @@
         <v>103</v>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C354" t="n">
         <v>1</v>
@@ -55259,10 +55259,10 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G354" t="n">
         <v>0</v>
@@ -55405,7 +55405,7 @@
         <v>103</v>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -55414,10 +55414,10 @@
         <v>0</v>
       </c>
       <c r="E355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G355" t="n">
         <v>0</v>
@@ -55560,7 +55560,7 @@
         <v>103</v>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C356" t="n">
         <v>1</v>
@@ -55569,10 +55569,10 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G356" t="n">
         <v>0</v>
@@ -55721,13 +55721,13 @@
         <v>1</v>
       </c>
       <c r="D357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -55876,13 +55876,13 @@
         <v>1</v>
       </c>
       <c r="D358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G358" t="n">
         <v>0</v>
@@ -56031,13 +56031,13 @@
         <v>1</v>
       </c>
       <c r="D359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G359" t="n">
         <v>0</v>
@@ -56186,13 +56186,13 @@
         <v>1</v>
       </c>
       <c r="D360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G360" t="n">
         <v>0</v>
@@ -56341,13 +56341,13 @@
         <v>1</v>
       </c>
       <c r="D361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G361" t="n">
         <v>0</v>
@@ -56490,19 +56490,19 @@
         <v>105</v>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -56645,19 +56645,19 @@
         <v>105</v>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G363" t="n">
         <v>0</v>
@@ -56800,19 +56800,19 @@
         <v>105</v>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G364" t="n">
         <v>0</v>
@@ -56955,19 +56955,19 @@
         <v>105</v>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G365" t="n">
         <v>0</v>
@@ -57736,10 +57736,10 @@
         <v>0</v>
       </c>
       <c r="D370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F370" t="n">
         <v>1</v>
@@ -57891,10 +57891,10 @@
         <v>0</v>
       </c>
       <c r="D371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F371" t="n">
         <v>1</v>
@@ -58046,10 +58046,10 @@
         <v>0</v>
       </c>
       <c r="D372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F372" t="n">
         <v>1</v>
@@ -59444,7 +59444,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F381" t="n">
         <v>1</v>
@@ -59599,7 +59599,7 @@
         <v>1</v>
       </c>
       <c r="E382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F382" t="n">
         <v>1</v>
@@ -59754,7 +59754,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F383" t="n">
         <v>1</v>
@@ -59909,7 +59909,7 @@
         <v>1</v>
       </c>
       <c r="E384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F384" t="n">
         <v>1</v>
@@ -60064,7 +60064,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F385" t="n">
         <v>1</v>
@@ -62228,7 +62228,7 @@
         <v>1</v>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D399" t="n">
         <v>0</v>
@@ -62383,7 +62383,7 @@
         <v>1</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D400" t="n">
         <v>0</v>
@@ -62538,7 +62538,7 @@
         <v>1</v>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D401" t="n">
         <v>0</v>
@@ -63164,7 +63164,7 @@
         <v>0</v>
       </c>
       <c r="E405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F405" t="n">
         <v>0</v>
@@ -63319,7 +63319,7 @@
         <v>1</v>
       </c>
       <c r="E406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F406" t="n">
         <v>1</v>
@@ -63474,7 +63474,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F407" t="n">
         <v>1</v>
@@ -63629,7 +63629,7 @@
         <v>1</v>
       </c>
       <c r="E408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F408" t="n">
         <v>1</v>
@@ -63784,7 +63784,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F409" t="n">
         <v>1</v>
@@ -63930,7 +63930,7 @@
         <v>120</v>
       </c>
       <c r="B410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C410" t="n">
         <v>1</v>
@@ -63942,7 +63942,7 @@
         <v>1</v>
       </c>
       <c r="F410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -64094,7 +64094,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F411" t="n">
         <v>1</v>
@@ -64249,7 +64249,7 @@
         <v>1</v>
       </c>
       <c r="E412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F412" t="n">
         <v>1</v>
@@ -64404,7 +64404,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F413" t="n">
         <v>1</v>
@@ -64559,7 +64559,7 @@
         <v>1</v>
       </c>
       <c r="E414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F414" t="n">
         <v>1</v>
@@ -64714,7 +64714,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F415" t="n">
         <v>1</v>
@@ -64869,7 +64869,7 @@
         <v>1</v>
       </c>
       <c r="E416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F416" t="n">
         <v>1</v>
@@ -65170,16 +65170,16 @@
         <v>123</v>
       </c>
       <c r="B418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
       </c>
       <c r="D418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F418" t="n">
         <v>1</v>
@@ -65325,16 +65325,16 @@
         <v>123</v>
       </c>
       <c r="B419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C419" t="n">
         <v>0</v>
       </c>
       <c r="D419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F419" t="n">
         <v>1</v>
@@ -66109,7 +66109,7 @@
         <v>1</v>
       </c>
       <c r="E424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F424" t="n">
         <v>0</v>
@@ -66255,7 +66255,7 @@
         <v>127</v>
       </c>
       <c r="B425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C425" t="n">
         <v>0</v>
@@ -66410,7 +66410,7 @@
         <v>127</v>
       </c>
       <c r="B426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C426" t="n">
         <v>0</v>
@@ -67653,7 +67653,7 @@
         <v>1</v>
       </c>
       <c r="C434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D434" t="n">
         <v>1</v>
@@ -67808,7 +67808,7 @@
         <v>1</v>
       </c>
       <c r="C435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D435" t="n">
         <v>1</v>
@@ -67963,7 +67963,7 @@
         <v>1</v>
       </c>
       <c r="C436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D436" t="n">
         <v>1</v>
@@ -68121,13 +68121,13 @@
         <v>1</v>
       </c>
       <c r="D437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G437" t="n">
         <v>0</v>
@@ -68276,13 +68276,13 @@
         <v>1</v>
       </c>
       <c r="D438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G438" t="n">
         <v>0</v>
@@ -68431,13 +68431,13 @@
         <v>1</v>
       </c>
       <c r="D439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G439" t="n">
         <v>0</v>
@@ -69820,7 +69820,7 @@
         <v>135</v>
       </c>
       <c r="B448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C448" t="n">
         <v>1</v>
@@ -69975,7 +69975,7 @@
         <v>135</v>
       </c>
       <c r="B449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C449" t="n">
         <v>1</v>
@@ -70130,7 +70130,7 @@
         <v>135</v>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C450" t="n">
         <v>1</v>
@@ -70285,7 +70285,7 @@
         <v>135</v>
       </c>
       <c r="B451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C451" t="n">
         <v>1</v>
@@ -70440,7 +70440,7 @@
         <v>135</v>
       </c>
       <c r="B452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C452" t="n">
         <v>1</v>
@@ -71990,7 +71990,7 @@
         <v>138</v>
       </c>
       <c r="B462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C462" t="n">
         <v>1</v>
@@ -72002,7 +72002,7 @@
         <v>0</v>
       </c>
       <c r="F462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G462" t="n">
         <v>0</v>
@@ -72145,7 +72145,7 @@
         <v>138</v>
       </c>
       <c r="B463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C463" t="n">
         <v>1</v>
@@ -72157,7 +72157,7 @@
         <v>0</v>
       </c>
       <c r="F463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G463" t="n">
         <v>0</v>
@@ -72300,7 +72300,7 @@
         <v>139</v>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C464" t="n">
         <v>1</v>
@@ -72309,7 +72309,7 @@
         <v>1</v>
       </c>
       <c r="E464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F464" t="n">
         <v>1</v>
@@ -72455,7 +72455,7 @@
         <v>139</v>
       </c>
       <c r="B465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C465" t="n">
         <v>1</v>
@@ -72464,7 +72464,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F465" t="n">
         <v>1</v>
@@ -72610,7 +72610,7 @@
         <v>139</v>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C466" t="n">
         <v>1</v>
@@ -72619,7 +72619,7 @@
         <v>1</v>
       </c>
       <c r="E466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F466" t="n">
         <v>1</v>
@@ -72774,7 +72774,7 @@
         <v>0</v>
       </c>
       <c r="E467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F467" t="n">
         <v>1</v>
@@ -72929,7 +72929,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F468" t="n">
         <v>1</v>
@@ -73084,7 +73084,7 @@
         <v>0</v>
       </c>
       <c r="E469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F469" t="n">
         <v>1</v>
@@ -73239,7 +73239,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F470" t="n">
         <v>1</v>
@@ -73394,7 +73394,7 @@
         <v>0</v>
       </c>
       <c r="E471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F471" t="n">
         <v>1</v>
@@ -73540,16 +73540,16 @@
         <v>141</v>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C472" t="n">
         <v>1</v>
       </c>
       <c r="D472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F472" t="n">
         <v>1</v>
@@ -73695,16 +73695,16 @@
         <v>141</v>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C473" t="n">
         <v>1</v>
       </c>
       <c r="D473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F473" t="n">
         <v>1</v>
@@ -73850,16 +73850,16 @@
         <v>141</v>
       </c>
       <c r="B474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C474" t="n">
         <v>1</v>
       </c>
       <c r="D474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F474" t="n">
         <v>1</v>
@@ -74005,16 +74005,16 @@
         <v>141</v>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C475" t="n">
         <v>1</v>
       </c>
       <c r="D475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F475" t="n">
         <v>1</v>
@@ -74160,16 +74160,16 @@
         <v>141</v>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C476" t="n">
         <v>1</v>
       </c>
       <c r="D476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F476" t="n">
         <v>1</v>
@@ -74315,7 +74315,7 @@
         <v>142</v>
       </c>
       <c r="B477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C477" t="n">
         <v>1</v>
@@ -74324,7 +74324,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F477" t="n">
         <v>1</v>
@@ -74470,7 +74470,7 @@
         <v>142</v>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C478" t="n">
         <v>1</v>
@@ -74479,7 +74479,7 @@
         <v>1</v>
       </c>
       <c r="E478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F478" t="n">
         <v>1</v>
@@ -74625,7 +74625,7 @@
         <v>142</v>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C479" t="n">
         <v>1</v>
@@ -74634,7 +74634,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F479" t="n">
         <v>1</v>
@@ -74780,7 +74780,7 @@
         <v>142</v>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
         <v>1</v>
@@ -74789,7 +74789,7 @@
         <v>1</v>
       </c>
       <c r="E480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F480" t="n">
         <v>1</v>
@@ -74935,7 +74935,7 @@
         <v>143</v>
       </c>
       <c r="B481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C481" t="n">
         <v>0</v>
@@ -75090,7 +75090,7 @@
         <v>143</v>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C482" t="n">
         <v>0</v>
@@ -75245,7 +75245,7 @@
         <v>143</v>
       </c>
       <c r="B483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C483" t="n">
         <v>0</v>
@@ -75558,7 +75558,7 @@
         <v>1</v>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D485" t="n">
         <v>1</v>
@@ -75713,7 +75713,7 @@
         <v>1</v>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D486" t="n">
         <v>1</v>
@@ -75868,7 +75868,7 @@
         <v>1</v>
       </c>
       <c r="C487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D487" t="n">
         <v>1</v>
@@ -76026,10 +76026,10 @@
         <v>1</v>
       </c>
       <c r="D488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F488" t="n">
         <v>1</v>
@@ -76181,10 +76181,10 @@
         <v>1</v>
       </c>
       <c r="D489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F489" t="n">
         <v>1</v>
@@ -76807,7 +76807,7 @@
         <v>1</v>
       </c>
       <c r="F493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -76962,7 +76962,7 @@
         <v>1</v>
       </c>
       <c r="F494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G494" t="n">
         <v>0</v>
@@ -77117,7 +77117,7 @@
         <v>1</v>
       </c>
       <c r="F495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G495" t="n">
         <v>0</v>
@@ -77269,7 +77269,7 @@
         <v>1</v>
       </c>
       <c r="E496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F496" t="n">
         <v>1</v>
@@ -77424,7 +77424,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F497" t="n">
         <v>1</v>
@@ -77579,7 +77579,7 @@
         <v>1</v>
       </c>
       <c r="E498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F498" t="n">
         <v>1</v>
@@ -77734,7 +77734,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F499" t="n">
         <v>1</v>
@@ -78196,7 +78196,7 @@
         <v>1</v>
       </c>
       <c r="D502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E502" t="n">
         <v>0</v>
@@ -78351,7 +78351,7 @@
         <v>1</v>
       </c>
       <c r="D503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E503" t="n">
         <v>0</v>
@@ -78506,7 +78506,7 @@
         <v>1</v>
       </c>
       <c r="D504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E504" t="n">
         <v>0</v>
@@ -78965,7 +78965,7 @@
         <v>154</v>
       </c>
       <c r="B507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C507" t="n">
         <v>1</v>
@@ -79120,7 +79120,7 @@
         <v>154</v>
       </c>
       <c r="B508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C508" t="n">
         <v>1</v>
@@ -79275,7 +79275,7 @@
         <v>154</v>
       </c>
       <c r="B509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C509" t="n">
         <v>1</v>
@@ -79430,7 +79430,7 @@
         <v>154</v>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C510" t="n">
         <v>1</v>
@@ -79594,7 +79594,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F511" t="n">
         <v>1</v>
@@ -79749,7 +79749,7 @@
         <v>1</v>
       </c>
       <c r="E512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F512" t="n">
         <v>1</v>
@@ -79904,7 +79904,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F513" t="n">
         <v>1</v>
@@ -81755,7 +81755,7 @@
         <v>159</v>
       </c>
       <c r="B525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C525" t="n">
         <v>1</v>
@@ -81910,7 +81910,7 @@
         <v>160</v>
       </c>
       <c r="B526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C526" t="n">
         <v>1</v>
@@ -82065,7 +82065,7 @@
         <v>160</v>
       </c>
       <c r="B527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C527" t="n">
         <v>1</v>
@@ -82220,7 +82220,7 @@
         <v>160</v>
       </c>
       <c r="B528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C528" t="n">
         <v>1</v>
@@ -82375,7 +82375,7 @@
         <v>161</v>
       </c>
       <c r="B529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C529" t="n">
         <v>1</v>
@@ -82384,7 +82384,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F529" t="n">
         <v>1</v>
@@ -82533,13 +82533,13 @@
         <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D530" t="n">
         <v>1</v>
       </c>
       <c r="E530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F530" t="n">
         <v>1</v>
@@ -82688,13 +82688,13 @@
         <v>1</v>
       </c>
       <c r="C531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D531" t="n">
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F531" t="n">
         <v>1</v>
@@ -82843,13 +82843,13 @@
         <v>1</v>
       </c>
       <c r="C532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D532" t="n">
         <v>1</v>
       </c>
       <c r="E532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F532" t="n">
         <v>1</v>
@@ -82998,13 +82998,13 @@
         <v>1</v>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D533" t="n">
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F533" t="n">
         <v>1</v>
@@ -83159,7 +83159,7 @@
         <v>1</v>
       </c>
       <c r="E534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F534" t="n">
         <v>0</v>
@@ -83314,7 +83314,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F535" t="n">
         <v>0</v>
@@ -83469,7 +83469,7 @@
         <v>1</v>
       </c>
       <c r="E536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F536" t="n">
         <v>0</v>
@@ -83624,7 +83624,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F537" t="n">
         <v>0</v>
@@ -83776,7 +83776,7 @@
         <v>1</v>
       </c>
       <c r="D538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E538" t="n">
         <v>0</v>
@@ -83931,7 +83931,7 @@
         <v>1</v>
       </c>
       <c r="D539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E539" t="n">
         <v>0</v>
@@ -84086,7 +84086,7 @@
         <v>1</v>
       </c>
       <c r="D540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E540" t="n">
         <v>0</v>
@@ -84238,16 +84238,16 @@
         <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D541" t="n">
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -84393,16 +84393,16 @@
         <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D542" t="n">
         <v>1</v>
       </c>
       <c r="E542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G542" t="n">
         <v>0</v>
@@ -84548,16 +84548,16 @@
         <v>1</v>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D543" t="n">
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G543" t="n">
         <v>0</v>
@@ -84706,13 +84706,13 @@
         <v>1</v>
       </c>
       <c r="D544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -84861,13 +84861,13 @@
         <v>1</v>
       </c>
       <c r="D545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G545" t="n">
         <v>0</v>
@@ -85016,13 +85016,13 @@
         <v>1</v>
       </c>
       <c r="D546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G546" t="n">
         <v>0</v>
@@ -85171,13 +85171,13 @@
         <v>1</v>
       </c>
       <c r="D547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G547" t="n">
         <v>0</v>
@@ -85320,10 +85320,10 @@
         <v>167</v>
       </c>
       <c r="B548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D548" t="n">
         <v>1</v>
@@ -85475,10 +85475,10 @@
         <v>167</v>
       </c>
       <c r="B549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D549" t="n">
         <v>1</v>
@@ -85630,10 +85630,10 @@
         <v>167</v>
       </c>
       <c r="B550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D550" t="n">
         <v>1</v>
@@ -86417,7 +86417,7 @@
         <v>1</v>
       </c>
       <c r="F555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -86572,7 +86572,7 @@
         <v>1</v>
       </c>
       <c r="F556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G556" t="n">
         <v>0</v>
@@ -86718,13 +86718,13 @@
         <v>1</v>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F557" t="n">
         <v>1</v>
@@ -86873,13 +86873,13 @@
         <v>1</v>
       </c>
       <c r="C558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F558" t="n">
         <v>1</v>
@@ -87028,13 +87028,13 @@
         <v>1</v>
       </c>
       <c r="C559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F559" t="n">
         <v>1</v>
@@ -87186,10 +87186,10 @@
         <v>0</v>
       </c>
       <c r="D560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F560" t="n">
         <v>0</v>
@@ -87341,10 +87341,10 @@
         <v>0</v>
       </c>
       <c r="D561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F561" t="n">
         <v>0</v>
@@ -87496,10 +87496,10 @@
         <v>0</v>
       </c>
       <c r="D562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F562" t="n">
         <v>0</v>
@@ -87654,7 +87654,7 @@
         <v>0</v>
       </c>
       <c r="E563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F563" t="n">
         <v>1</v>
@@ -87809,7 +87809,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F564" t="n">
         <v>1</v>
@@ -88584,7 +88584,7 @@
         <v>0</v>
       </c>
       <c r="E569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F569" t="n">
         <v>1</v>
@@ -88739,7 +88739,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F570" t="n">
         <v>1</v>
@@ -88894,7 +88894,7 @@
         <v>0</v>
       </c>
       <c r="E571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F571" t="n">
         <v>1</v>
@@ -89046,10 +89046,10 @@
         <v>1</v>
       </c>
       <c r="D572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F572" t="n">
         <v>1</v>
@@ -89201,10 +89201,10 @@
         <v>1</v>
       </c>
       <c r="D573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F573" t="n">
         <v>1</v>
@@ -89356,10 +89356,10 @@
         <v>1</v>
       </c>
       <c r="D574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F574" t="n">
         <v>1</v>
@@ -89511,10 +89511,10 @@
         <v>1</v>
       </c>
       <c r="D575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F575" t="n">
         <v>1</v>
@@ -89824,7 +89824,7 @@
         <v>0</v>
       </c>
       <c r="E577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F577" t="n">
         <v>1</v>
@@ -89982,7 +89982,7 @@
         <v>0</v>
       </c>
       <c r="F578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -90137,7 +90137,7 @@
         <v>0</v>
       </c>
       <c r="F579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G579" t="n">
         <v>0</v>
@@ -90748,7 +90748,7 @@
         <v>1</v>
       </c>
       <c r="C583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D583" t="n">
         <v>1</v>
@@ -90757,7 +90757,7 @@
         <v>1</v>
       </c>
       <c r="F583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -90903,7 +90903,7 @@
         <v>1</v>
       </c>
       <c r="C584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D584" t="n">
         <v>1</v>
@@ -90912,7 +90912,7 @@
         <v>1</v>
       </c>
       <c r="F584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G584" t="n">
         <v>0</v>
@@ -91058,7 +91058,7 @@
         <v>1</v>
       </c>
       <c r="C585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D585" t="n">
         <v>1</v>
@@ -91067,7 +91067,7 @@
         <v>1</v>
       </c>
       <c r="F585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G585" t="n">
         <v>0</v>
@@ -91210,7 +91210,7 @@
         <v>181</v>
       </c>
       <c r="B586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C586" t="n">
         <v>1</v>
@@ -91219,7 +91219,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F586" t="n">
         <v>0</v>
@@ -91371,7 +91371,7 @@
         <v>0</v>
       </c>
       <c r="D587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E587" t="n">
         <v>0</v>
@@ -91526,7 +91526,7 @@
         <v>0</v>
       </c>
       <c r="D588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E588" t="n">
         <v>0</v>
@@ -91678,7 +91678,7 @@
         <v>1</v>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D589" t="n">
         <v>1</v>
@@ -92772,7 +92772,7 @@
         <v>1</v>
       </c>
       <c r="F596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -92927,7 +92927,7 @@
         <v>1</v>
       </c>
       <c r="F597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G597" t="n">
         <v>0</v>
@@ -93082,7 +93082,7 @@
         <v>1</v>
       </c>
       <c r="F598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G598" t="n">
         <v>0</v>
@@ -93237,7 +93237,7 @@
         <v>1</v>
       </c>
       <c r="F599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G599" t="n">
         <v>0</v>
@@ -93392,7 +93392,7 @@
         <v>1</v>
       </c>
       <c r="F600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G600" t="n">
         <v>0</v>
@@ -93547,7 +93547,7 @@
         <v>1</v>
       </c>
       <c r="F601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G601" t="n">
         <v>0</v>
@@ -93690,7 +93690,7 @@
         <v>187</v>
       </c>
       <c r="B602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C602" t="n">
         <v>1</v>
@@ -93699,7 +93699,7 @@
         <v>0</v>
       </c>
       <c r="E602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F602" t="n">
         <v>1</v>
@@ -93845,7 +93845,7 @@
         <v>187</v>
       </c>
       <c r="B603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C603" t="n">
         <v>1</v>
@@ -93854,7 +93854,7 @@
         <v>0</v>
       </c>
       <c r="E603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F603" t="n">
         <v>1</v>
@@ -94000,7 +94000,7 @@
         <v>187</v>
       </c>
       <c r="B604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C604" t="n">
         <v>1</v>
@@ -94009,7 +94009,7 @@
         <v>0</v>
       </c>
       <c r="E604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F604" t="n">
         <v>1</v>
@@ -94161,10 +94161,10 @@
         <v>1</v>
       </c>
       <c r="D605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F605" t="n">
         <v>1</v>
@@ -94316,10 +94316,10 @@
         <v>1</v>
       </c>
       <c r="D606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F606" t="n">
         <v>1</v>
@@ -94471,10 +94471,10 @@
         <v>1</v>
       </c>
       <c r="D607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F607" t="n">
         <v>1</v>
@@ -94620,13 +94620,13 @@
         <v>189</v>
       </c>
       <c r="B608" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C608" t="n">
         <v>1</v>
       </c>
       <c r="D608" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E608" t="n">
         <v>0</v>
@@ -94775,13 +94775,13 @@
         <v>189</v>
       </c>
       <c r="B609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C609" t="n">
         <v>1</v>
       </c>
       <c r="D609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E609" t="n">
         <v>0</v>
@@ -94930,13 +94930,13 @@
         <v>189</v>
       </c>
       <c r="B610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C610" t="n">
         <v>1</v>
       </c>
       <c r="D610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E610" t="n">
         <v>0</v>
@@ -95094,7 +95094,7 @@
         <v>0</v>
       </c>
       <c r="E611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F611" t="n">
         <v>1</v>
@@ -95249,7 +95249,7 @@
         <v>0</v>
       </c>
       <c r="E612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F612" t="n">
         <v>1</v>
@@ -96635,7 +96635,7 @@
         <v>193</v>
       </c>
       <c r="B621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C621" t="n">
         <v>1</v>
@@ -96790,7 +96790,7 @@
         <v>193</v>
       </c>
       <c r="B622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C622" t="n">
         <v>1</v>
@@ -96945,7 +96945,7 @@
         <v>193</v>
       </c>
       <c r="B623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C623" t="n">
         <v>1</v>
@@ -98659,7 +98659,7 @@
         <v>0</v>
       </c>
       <c r="E634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F634" t="n">
         <v>1</v>
@@ -98814,7 +98814,7 @@
         <v>0</v>
       </c>
       <c r="E635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F635" t="n">
         <v>1</v>
@@ -98969,7 +98969,7 @@
         <v>0</v>
       </c>
       <c r="E636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F636" t="n">
         <v>1</v>
@@ -99124,7 +99124,7 @@
         <v>0</v>
       </c>
       <c r="E637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F637" t="n">
         <v>1</v>
@@ -99279,7 +99279,7 @@
         <v>0</v>
       </c>
       <c r="E638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F638" t="n">
         <v>1</v>
@@ -99437,7 +99437,7 @@
         <v>0</v>
       </c>
       <c r="F639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -99592,7 +99592,7 @@
         <v>0</v>
       </c>
       <c r="F640" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G640" t="n">
         <v>0</v>
@@ -99747,7 +99747,7 @@
         <v>0</v>
       </c>
       <c r="F641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G641" t="n">
         <v>0</v>
@@ -99902,7 +99902,7 @@
         <v>0</v>
       </c>
       <c r="F642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G642" t="n">
         <v>0</v>
@@ -100975,19 +100975,19 @@
         <v>199</v>
       </c>
       <c r="B649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D649" t="n">
         <v>0</v>
       </c>
       <c r="E649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -101130,19 +101130,19 @@
         <v>199</v>
       </c>
       <c r="B650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D650" t="n">
         <v>0</v>
       </c>
       <c r="E650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G650" t="n">
         <v>0</v>
@@ -101285,19 +101285,19 @@
         <v>199</v>
       </c>
       <c r="B651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D651" t="n">
         <v>0</v>
       </c>
       <c r="E651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G651" t="n">
         <v>0</v>
@@ -101440,19 +101440,19 @@
         <v>199</v>
       </c>
       <c r="B652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D652" t="n">
         <v>0</v>
       </c>
       <c r="E652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G652" t="n">
         <v>0</v>
@@ -102683,16 +102683,16 @@
         <v>1</v>
       </c>
       <c r="C660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D660" t="n">
         <v>0</v>
       </c>
       <c r="E660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -102838,16 +102838,16 @@
         <v>1</v>
       </c>
       <c r="C661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D661" t="n">
         <v>0</v>
       </c>
       <c r="E661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G661" t="n">
         <v>0</v>
@@ -103458,16 +103458,16 @@
         <v>1</v>
       </c>
       <c r="C665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D665" t="n">
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G665" t="n">
         <v>1</v>
@@ -103613,16 +103613,16 @@
         <v>1</v>
       </c>
       <c r="C666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D666" t="n">
         <v>1</v>
       </c>
       <c r="E666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G666" t="n">
         <v>0</v>
@@ -103768,16 +103768,16 @@
         <v>1</v>
       </c>
       <c r="C667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D667" t="n">
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G667" t="n">
         <v>0</v>
@@ -103923,16 +103923,16 @@
         <v>1</v>
       </c>
       <c r="C668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D668" t="n">
         <v>1</v>
       </c>
       <c r="E668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G668" t="n">
         <v>0</v>
@@ -104549,7 +104549,7 @@
         <v>0</v>
       </c>
       <c r="E672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F672" t="n">
         <v>0</v>
@@ -104704,7 +104704,7 @@
         <v>0</v>
       </c>
       <c r="E673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F673" t="n">
         <v>0</v>
@@ -104859,7 +104859,7 @@
         <v>0</v>
       </c>
       <c r="E674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F674" t="n">
         <v>0</v>
